--- a/results/mp/logistic/corona/confidence/126/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="130">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,159 +40,153 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>death</t>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>disgusting</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>lowest</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
   </si>
   <si>
     <t>cancelled</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>fight</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
-    <t>due</t>
-  </si>
-  <si>
     <t>buying</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
@@ -202,232 +196,214 @@
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>god</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>god</t>
+    <t>ready</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>data</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>easter</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>employees</t>
+    <t>want</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>shop</t>
+    <t>need</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
     <t>amp</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
 </sst>
 </file>
@@ -785,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -793,10 +769,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -875,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -904,13 +880,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -922,31 +898,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4">
-        <v>0.9152542372881356</v>
-      </c>
-      <c r="L4">
-        <v>54</v>
-      </c>
-      <c r="M4">
-        <v>54</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -954,13 +930,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8611111111111112</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -972,31 +948,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L5">
+        <v>54</v>
+      </c>
+      <c r="M5">
+        <v>54</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="L5">
-        <v>17</v>
-      </c>
-      <c r="M5">
-        <v>17</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1004,13 +980,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8421052631578947</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1025,16 +1001,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1046,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1054,13 +1030,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.84</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1072,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K7">
-        <v>0.8833333333333333</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1096,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1104,13 +1080,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1122,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K8">
         <v>0.8666666666666667</v>
@@ -1154,13 +1130,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7941176470588235</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1175,16 +1151,16 @@
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K9">
-        <v>0.8620689655172413</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M9">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1196,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1204,13 +1180,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7931034482758621</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1225,28 +1201,28 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K10">
-        <v>0.8558558558558559</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1254,13 +1230,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.791095890410959</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C11">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1272,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K11">
-        <v>0.8461538461538461</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1296,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1304,13 +1280,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7837837837837838</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1325,16 +1301,16 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1346,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1354,13 +1330,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7391304347826086</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1372,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K13">
-        <v>0.8328981723237598</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L13">
-        <v>319</v>
+        <v>49</v>
       </c>
       <c r="M13">
-        <v>319</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1396,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1404,13 +1380,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7368421052631579</v>
+        <v>0.72</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1422,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K14">
-        <v>0.8181818181818182</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1446,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1454,13 +1430,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7368421052631579</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1472,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K15">
-        <v>0.8148148148148148</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1496,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1504,13 +1480,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7307692307692307</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1522,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K16">
-        <v>0.8125</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>319</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>319</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1546,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1554,13 +1530,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6956521739130435</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1572,19 +1548,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K17">
-        <v>0.80625</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L17">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1596,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1604,13 +1580,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6538461538461539</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1622,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K18">
-        <v>0.8055555555555556</v>
+        <v>0.79375</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1646,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1654,37 +1630,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6206896551724138</v>
+        <v>0.625</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K19">
-        <v>0.795774647887324</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L19">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1696,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1704,13 +1680,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5925925925925926</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C20">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1722,19 +1698,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K20">
-        <v>0.7926829268292683</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L20">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M20">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1746,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1754,13 +1730,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5909090909090909</v>
+        <v>0.5949612403100775</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>307</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1772,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K21">
-        <v>0.7872340425531915</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1796,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1804,13 +1780,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5882352941176471</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1822,19 +1798,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K22">
-        <v>0.7830188679245284</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L22">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="M22">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1846,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1854,13 +1830,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5666666666666667</v>
+        <v>0.582010582010582</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1872,19 +1848,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K23">
-        <v>0.7777777777777778</v>
+        <v>0.7734375</v>
       </c>
       <c r="L23">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="M23">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1896,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1904,7 +1880,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5625</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C24">
         <v>18</v>
@@ -1922,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K24">
-        <v>0.7727272727272727</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1946,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1954,13 +1930,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.562015503875969</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C25">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1972,19 +1948,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K25">
-        <v>0.7674418604651163</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1996,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2004,13 +1980,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5483870967741935</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2022,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K26">
-        <v>0.765625</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L26">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2046,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2054,13 +2030,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.525</v>
+        <v>0.5570469798657718</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2072,19 +2048,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2096,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2104,13 +2080,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5234899328859061</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C28">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2122,19 +2098,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K28">
-        <v>0.7083333333333334</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2146,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2154,7 +2130,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5128205128205128</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C29">
         <v>20</v>
@@ -2172,19 +2148,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K29">
-        <v>0.7</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2196,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2204,13 +2180,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4909090909090909</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2222,19 +2198,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K30">
-        <v>0.6818181818181818</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2246,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2254,13 +2230,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4821428571428572</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C31">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2272,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K31">
-        <v>0.6785714285714286</v>
+        <v>0.66</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2296,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2304,13 +2280,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4666666666666667</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2322,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2346,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2354,13 +2330,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4516129032258064</v>
+        <v>0.5</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2372,19 +2348,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K33">
-        <v>0.6527196652719666</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L33">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2396,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2404,13 +2380,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4444444444444444</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2425,16 +2401,16 @@
         <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K34">
-        <v>0.6461538461538462</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2446,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2454,13 +2430,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4390243902439024</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2472,19 +2448,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K35">
-        <v>0.6352941176470588</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L35">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2496,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>124</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2504,13 +2480,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4358974358974359</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2522,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K36">
-        <v>0.6285714285714286</v>
+        <v>0.6305084745762712</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2546,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2554,13 +2530,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4266666666666667</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C37">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2572,19 +2548,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K37">
-        <v>0.6170212765957447</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L37">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2596,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2604,13 +2580,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4193548387096774</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2622,19 +2598,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K38">
-        <v>0.6060606060606061</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2646,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2654,38 +2630,38 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4054054054054054</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>35</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K39">
+        <v>0.625</v>
+      </c>
+      <c r="L39">
         <v>15</v>
       </c>
-      <c r="D39">
+      <c r="M39">
         <v>15</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>22</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K39">
-        <v>0.6</v>
-      </c>
-      <c r="L39">
-        <v>30</v>
-      </c>
-      <c r="M39">
-        <v>30</v>
-      </c>
       <c r="N39">
         <v>1</v>
       </c>
@@ -2696,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2704,13 +2680,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.392156862745098</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2722,19 +2698,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K40">
-        <v>0.5955056179775281</v>
+        <v>0.625</v>
       </c>
       <c r="L40">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2746,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2754,13 +2730,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3636363636363636</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2772,19 +2748,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K41">
-        <v>0.5830508474576271</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L41">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2796,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>123</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2804,13 +2780,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3444444444444444</v>
+        <v>0.3373015873015873</v>
       </c>
       <c r="C42">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2822,19 +2798,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K42">
-        <v>0.5714285714285714</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2846,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>12</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2854,13 +2830,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3253968253968254</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C43">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2872,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K43">
-        <v>0.5714285714285714</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2896,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2904,7 +2880,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2987012987012987</v>
+        <v>0.2875</v>
       </c>
       <c r="C44">
         <v>23</v>
@@ -2922,19 +2898,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K44">
-        <v>0.5652173913043478</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2946,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2954,37 +2930,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2412868632707775</v>
+        <v>0.2365591397849462</v>
       </c>
       <c r="C45">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K45">
-        <v>0.5652173913043478</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2996,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3004,37 +2980,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>255</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L46">
         <v>16</v>
       </c>
-      <c r="D46">
+      <c r="M46">
         <v>16</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>64</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K46">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L46">
-        <v>15</v>
-      </c>
-      <c r="M46">
-        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3054,13 +3030,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1533333333333333</v>
+        <v>0.09215017064846416</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3072,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K47">
-        <v>0.5490196078431373</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3096,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3104,49 +3080,49 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0851063829787234</v>
+        <v>0.04145077720207254</v>
       </c>
       <c r="C48">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D48">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E48">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F48">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>215</v>
+        <v>1110</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K48">
-        <v>0.5357142857142857</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L48">
+        <v>18</v>
+      </c>
+      <c r="M48">
+        <v>18</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>15</v>
-      </c>
-      <c r="M48">
-        <v>15</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3154,37 +3130,37 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.08191126279863481</v>
+        <v>0.03337653920933247</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>269</v>
+        <v>2983</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K49">
-        <v>0.5142857142857142</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L49">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3196,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3204,37 +3180,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03894839337877313</v>
+        <v>0.02315689981096408</v>
       </c>
       <c r="C50">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="D50">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="E50">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="F50">
-        <v>0.8200000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>2961</v>
+        <v>2067</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K50">
-        <v>0.5</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3254,13 +3230,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03496503496503497</v>
+        <v>0.0197215777262181</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D51">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E51">
         <v>0.23</v>
@@ -3272,19 +3248,19 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>828</v>
+        <v>845</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K51">
-        <v>0.4666666666666667</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3296,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3304,137 +3280,89 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.03119584055459272</v>
+        <v>0.008698453608247423</v>
       </c>
       <c r="C52">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <v>124</v>
+      </c>
+      <c r="E52">
+        <v>0.78</v>
+      </c>
+      <c r="F52">
+        <v>0.22</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>3077</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K52">
+        <v>0.4901960784313725</v>
+      </c>
+      <c r="L52">
+        <v>25</v>
+      </c>
+      <c r="M52">
+        <v>25</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="J53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="L53">
+        <v>35</v>
+      </c>
+      <c r="M53">
         <v>36</v>
       </c>
-      <c r="D52">
-        <v>43</v>
-      </c>
-      <c r="E52">
-        <v>0.16</v>
-      </c>
-      <c r="F52">
-        <v>0.84</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>1118</v>
-      </c>
-      <c r="J52" s="1" t="s">
+      <c r="N53">
+        <v>0.97</v>
+      </c>
+      <c r="O53">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="J54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K52">
-        <v>0.4657534246575342</v>
-      </c>
-      <c r="L52">
-        <v>34</v>
-      </c>
-      <c r="M52">
-        <v>34</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0.02368545712932259</v>
-      </c>
-      <c r="C53">
-        <v>50</v>
-      </c>
-      <c r="D53">
-        <v>82</v>
-      </c>
-      <c r="E53">
-        <v>0.39</v>
-      </c>
-      <c r="F53">
-        <v>0.61</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>2061</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K53">
-        <v>0.4523809523809524</v>
-      </c>
-      <c r="L53">
-        <v>19</v>
-      </c>
-      <c r="M53">
-        <v>19</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54">
-        <v>0.009983896940418679</v>
-      </c>
-      <c r="C54">
-        <v>31</v>
-      </c>
-      <c r="D54">
-        <v>127</v>
-      </c>
-      <c r="E54">
-        <v>0.76</v>
-      </c>
-      <c r="F54">
-        <v>0.24</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>3074</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="K54">
-        <v>0.4358974358974359</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L54">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M54">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3446,21 +3374,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="J55" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K55">
-        <v>0.4193548387096774</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3472,21 +3400,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="J56" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K56">
-        <v>0.4117647058823529</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3498,21 +3426,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="J57" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K57">
-        <v>0.3898305084745763</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3529,16 +3457,16 @@
     </row>
     <row r="58" spans="1:17">
       <c r="J58" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K58">
-        <v>0.3770491803278688</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3550,21 +3478,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="J59" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K59">
-        <v>0.3508771929824561</v>
+        <v>0.28125</v>
       </c>
       <c r="L59">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M59">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3576,47 +3504,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="J60" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K60">
-        <v>0.35</v>
+        <v>0.2429906542056075</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M60">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>26</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K61">
-        <v>0.3409090909090909</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3628,21 +3556,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>29</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K62">
-        <v>0.328125</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L62">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M62">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3654,21 +3582,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K63">
-        <v>0.2641509433962264</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="L63">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M63">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3680,73 +3608,73 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>39</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K64">
-        <v>0.2394366197183098</v>
+        <v>0.1328671328671329</v>
       </c>
       <c r="L64">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M64">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N64">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>54</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K65">
-        <v>0.2169811320754717</v>
+        <v>0.1010452961672474</v>
       </c>
       <c r="L65">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M65">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N65">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O65">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>83</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K66">
-        <v>0.2096774193548387</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="L66">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3758,21 +3686,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K67">
-        <v>0.1428571428571428</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L67">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M67">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3784,47 +3712,47 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>78</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K68">
-        <v>0.134020618556701</v>
+        <v>0.07951807228915662</v>
       </c>
       <c r="L68">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="N68">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O68">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>84</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K69">
-        <v>0.1288343558282209</v>
+        <v>0.07163323782234957</v>
       </c>
       <c r="L69">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M69">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3836,345 +3764,189 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>142</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="K70">
-        <v>0.1238938053097345</v>
+        <v>0.03056080655324512</v>
       </c>
       <c r="L70">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M70">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>99</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K71">
-        <v>0.1197183098591549</v>
+        <v>0.02338530066815145</v>
       </c>
       <c r="L71">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M71">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N71">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O71">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>125</v>
+        <v>877</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K72">
-        <v>0.1135135135135135</v>
+        <v>0.0203125</v>
       </c>
       <c r="L72">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M72">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>164</v>
+        <v>627</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K73">
-        <v>0.09375</v>
+        <v>0.01803833145434047</v>
       </c>
       <c r="L73">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M73">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>377</v>
+        <v>871</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K74">
-        <v>0.09120521172638436</v>
+        <v>0.01776384535005225</v>
       </c>
       <c r="L74">
+        <v>17</v>
+      </c>
+      <c r="M74">
         <v>28</v>
       </c>
-      <c r="M74">
-        <v>29</v>
-      </c>
       <c r="N74">
-        <v>0.97</v>
+        <v>0.61</v>
       </c>
       <c r="O74">
-        <v>0.03000000000000003</v>
+        <v>0.39</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>279</v>
+        <v>940</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="K75">
-        <v>0.07958477508650519</v>
+        <v>0.01289398280802292</v>
       </c>
       <c r="L75">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M75">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>266</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="K76">
-        <v>0.06303724928366762</v>
+        <v>0.006990679094540613</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M76">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="77" spans="10:17">
-      <c r="J77" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K77">
-        <v>0.03738317757009346</v>
-      </c>
-      <c r="L77">
-        <v>24</v>
-      </c>
-      <c r="M77">
-        <v>32</v>
-      </c>
-      <c r="N77">
-        <v>0.75</v>
-      </c>
-      <c r="O77">
-        <v>0.25</v>
-      </c>
-      <c r="P77" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q77">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="78" spans="10:17">
-      <c r="J78" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K78">
-        <v>0.03121516164994426</v>
-      </c>
-      <c r="L78">
-        <v>28</v>
-      </c>
-      <c r="M78">
-        <v>32</v>
-      </c>
-      <c r="N78">
-        <v>0.88</v>
-      </c>
-      <c r="O78">
-        <v>0.12</v>
-      </c>
-      <c r="P78" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="79" spans="10:17">
-      <c r="J79" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K79">
-        <v>0.03028391167192429</v>
-      </c>
-      <c r="L79">
-        <v>96</v>
-      </c>
-      <c r="M79">
-        <v>127</v>
-      </c>
-      <c r="N79">
-        <v>0.76</v>
-      </c>
-      <c r="O79">
-        <v>0.24</v>
-      </c>
-      <c r="P79" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q79">
-        <v>3074</v>
-      </c>
-    </row>
-    <row r="80" spans="10:17">
-      <c r="J80" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K80">
-        <v>0.02017937219730942</v>
-      </c>
-      <c r="L80">
-        <v>18</v>
-      </c>
-      <c r="M80">
-        <v>20</v>
-      </c>
-      <c r="N80">
-        <v>0.9</v>
-      </c>
-      <c r="O80">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P80" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="81" spans="10:17">
-      <c r="J81" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K81">
-        <v>0.01528905876731964</v>
-      </c>
-      <c r="L81">
-        <v>32</v>
-      </c>
-      <c r="M81">
-        <v>82</v>
-      </c>
-      <c r="N81">
-        <v>0.39</v>
-      </c>
-      <c r="O81">
-        <v>0.61</v>
-      </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K82">
-        <v>0.008704385671242048</v>
-      </c>
-      <c r="L82">
-        <v>26</v>
-      </c>
-      <c r="M82">
-        <v>146</v>
-      </c>
-      <c r="N82">
-        <v>0.18</v>
-      </c>
-      <c r="O82">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="P82" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>2961</v>
+        <v>2983</v>
       </c>
     </row>
   </sheetData>
